--- a/spb91.xlsx
+++ b/spb91.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\PycharmProjects\VkMusStat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\VkMusStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Стили_и_Entrances" sheetId="1" r:id="rId1"/>
@@ -4165,21 +4165,22 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="86.33203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="2"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="41.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="86.28515625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4208,7 +4209,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>107</v>
       </c>
@@ -4232,7 +4233,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
@@ -4256,7 +4257,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>680</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>714</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>746</v>
       </c>
@@ -4400,7 +4401,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>684</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>611</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>747</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>698</v>
       </c>
@@ -4592,7 +4593,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>685</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>682</v>
       </c>
@@ -4640,7 +4641,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>403</v>
       </c>
@@ -4664,7 +4665,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>630</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>631</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>683</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>715</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -4832,7 +4833,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>689</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -4904,7 +4905,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -4928,7 +4929,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="288" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -4952,7 +4953,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>704</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>96</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>691</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>705</v>
       </c>
@@ -5105,7 +5106,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>694</v>
       </c>
@@ -5127,7 +5128,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
@@ -5148,7 +5149,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>75</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>62</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>355</v>
       </c>
@@ -5245,7 +5246,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>717</v>
       </c>
@@ -5269,7 +5270,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
@@ -5293,7 +5294,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>716</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>706</v>
       </c>
@@ -5341,7 +5342,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>725</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
@@ -5413,7 +5414,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>44</v>
       </c>
@@ -5437,7 +5438,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>687</v>
       </c>
@@ -5459,7 +5460,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>688</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>718</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>629</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>686</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>702</v>
       </c>
@@ -5569,7 +5570,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
@@ -5590,7 +5591,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -5611,7 +5612,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>42</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>699</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>54</v>
       </c>
@@ -5699,7 +5700,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>89</v>
       </c>
@@ -5723,7 +5724,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>703</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>761</v>
       </c>
@@ -5767,7 +5768,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>115</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>90</v>
       </c>
@@ -5809,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>719</v>
       </c>
@@ -5828,7 +5829,7 @@
       </c>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>720</v>
       </c>
@@ -5847,7 +5848,7 @@
       </c>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>721</v>
       </c>
@@ -5866,7 +5867,7 @@
       </c>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>626</v>
       </c>
@@ -5885,7 +5886,7 @@
       </c>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>722</v>
       </c>
@@ -5904,7 +5905,7 @@
       </c>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>627</v>
       </c>
@@ -5923,7 +5924,7 @@
       </c>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>690</v>
       </c>
@@ -5942,7 +5943,7 @@
       </c>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>681</v>
       </c>
@@ -5961,7 +5962,7 @@
       </c>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>405</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>108</v>
       </c>
@@ -5997,7 +5998,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>109</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>93</v>
       </c>
@@ -6033,7 +6034,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>712</v>
       </c>
@@ -6052,7 +6053,7 @@
       </c>
       <c r="F83" s="8"/>
     </row>
-    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>713</v>
       </c>
@@ -6071,7 +6072,7 @@
       </c>
       <c r="F84" s="8"/>
     </row>
-    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>710</v>
       </c>
@@ -6090,7 +6091,7 @@
       </c>
       <c r="F85" s="8"/>
     </row>
-    <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>711</v>
       </c>
@@ -6109,7 +6110,7 @@
       </c>
       <c r="F86" s="8"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>762</v>
       </c>
@@ -6128,7 +6129,7 @@
       </c>
       <c r="F87" s="8"/>
     </row>
-    <row r="88" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>114</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>57</v>
       </c>
@@ -6164,7 +6165,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>726</v>
       </c>
@@ -6183,7 +6184,7 @@
       </c>
       <c r="F90" s="8"/>
     </row>
-    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>410</v>
       </c>
@@ -6201,7 +6202,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>97</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>98</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>623</v>
       </c>
@@ -6276,7 +6277,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>102</v>
       </c>
@@ -6294,7 +6295,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>40</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>768</v>
       </c>
@@ -6336,7 +6337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>707</v>
       </c>
@@ -6354,7 +6355,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>692</v>
       </c>
@@ -6372,7 +6373,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="8" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" s="8" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>19</v>
       </c>
@@ -6393,7 +6394,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>30</v>
       </c>
@@ -6414,7 +6415,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="8" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>17</v>
       </c>
@@ -6435,7 +6436,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="8" customFormat="1" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>106</v>
       </c>
@@ -6454,7 +6455,7 @@
       </c>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>105</v>
       </c>
@@ -6473,7 +6474,7 @@
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>78</v>
       </c>
@@ -6492,7 +6493,7 @@
       </c>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>45</v>
       </c>
@@ -6511,7 +6512,7 @@
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>111</v>
       </c>
@@ -6530,7 +6531,7 @@
       </c>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>113</v>
       </c>
@@ -6549,7 +6550,7 @@
       </c>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>754</v>
       </c>
@@ -6570,7 +6571,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>700</v>
       </c>
@@ -6591,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>695</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>73</v>
       </c>
@@ -6628,7 +6629,7 @@
       </c>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" s="8" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" s="8" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>94</v>
       </c>
@@ -6647,7 +6648,7 @@
       </c>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>708</v>
       </c>
@@ -6665,7 +6666,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>709</v>
       </c>
@@ -6683,7 +6684,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="8" customFormat="1" ht="360" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" s="8" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>100</v>
       </c>
@@ -6702,7 +6703,7 @@
       </c>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" s="8" customFormat="1" ht="288" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" s="8" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>14</v>
       </c>
@@ -6721,7 +6722,7 @@
       </c>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" s="8" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>61</v>
       </c>
@@ -6742,7 +6743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>64</v>
       </c>
@@ -6761,7 +6762,7 @@
       </c>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" s="8" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" s="8" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>68</v>
       </c>
@@ -6782,7 +6783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="315" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>52</v>
       </c>
@@ -6803,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="405" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>76</v>
       </c>
@@ -6821,7 +6822,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>51</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>701</v>
       </c>
@@ -6861,7 +6862,7 @@
       </c>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>697</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>34</v>
       </c>
@@ -6900,7 +6901,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>28</v>
       </c>
@@ -6919,7 +6920,7 @@
       </c>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:8" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>86</v>
       </c>
@@ -6938,7 +6939,7 @@
       </c>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:8" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>693</v>
       </c>
@@ -6956,7 +6957,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>404</v>
       </c>
@@ -6974,7 +6975,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="216" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>104</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="8" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>103</v>
       </c>
@@ -7011,7 +7012,7 @@
       </c>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:8" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>724</v>
       </c>
@@ -7029,7 +7030,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>696</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>79</v>
       </c>
@@ -7066,7 +7067,7 @@
       </c>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:8" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>81</v>
       </c>
@@ -7085,7 +7086,7 @@
       </c>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:8" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>95</v>
       </c>
@@ -7104,7 +7105,7 @@
       </c>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:8" s="8" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>101</v>
       </c>
@@ -7123,7 +7124,7 @@
       </c>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:8" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>723</v>
       </c>
@@ -7141,7 +7142,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>71</v>
       </c>
@@ -7160,7 +7161,7 @@
       </c>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:8" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>88</v>
       </c>
@@ -7179,7 +7180,7 @@
       </c>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:8" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>112</v>
       </c>
@@ -7198,7 +7199,7 @@
       </c>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:8" s="8" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>87</v>
       </c>
@@ -7219,7 +7220,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>25</v>
       </c>
@@ -7240,7 +7241,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>16</v>
       </c>
@@ -7261,7 +7262,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>625</v>
       </c>
@@ -7282,7 +7283,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>38</v>
       </c>
@@ -7301,7 +7302,7 @@
       </c>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>31</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="8" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" s="8" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>22</v>
       </c>
@@ -7345,7 +7346,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="8" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" s="8" customFormat="1" ht="360" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>23</v>
       </c>
@@ -7366,7 +7367,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="8" customFormat="1" ht="288" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" s="8" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>26</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>27</v>
       </c>
@@ -7410,7 +7411,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>24</v>
       </c>
@@ -7432,7 +7433,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="8" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" s="8" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>32</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="8" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" s="8" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>33</v>
       </c>
@@ -7478,7 +7479,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="8" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>116</v>
       </c>
@@ -7500,7 +7501,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>628</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>422</v>
       </c>
@@ -7543,7 +7544,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>401</v>
       </c>
@@ -7640,15 +7641,15 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="41.140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -7665,7 +7666,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>528</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>564</v>
       </c>
@@ -7699,7 +7700,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>529</v>
       </c>
@@ -7716,7 +7717,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>530</v>
       </c>
@@ -7733,7 +7734,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>531</v>
       </c>
@@ -7750,7 +7751,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>566</v>
       </c>
@@ -7767,7 +7768,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>532</v>
       </c>
@@ -7784,7 +7785,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>534</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>535</v>
       </c>
@@ -7818,7 +7819,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>536</v>
       </c>
@@ -7835,7 +7836,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="396" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>557</v>
       </c>
@@ -7852,7 +7853,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="372.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>558</v>
       </c>
@@ -7869,7 +7870,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="306" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>559</v>
       </c>
@@ -7886,7 +7887,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>565</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>560</v>
       </c>
@@ -7920,7 +7921,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>561</v>
       </c>
@@ -7937,7 +7938,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>562</v>
       </c>
@@ -7954,7 +7955,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>585</v>
       </c>
@@ -7971,7 +7972,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>586</v>
       </c>
@@ -7988,7 +7989,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>587</v>
       </c>
@@ -8005,7 +8006,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>533</v>
       </c>
@@ -8022,7 +8023,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>588</v>
       </c>
@@ -8039,7 +8040,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>589</v>
       </c>
@@ -8056,7 +8057,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>590</v>
       </c>
@@ -8073,7 +8074,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>591</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>592</v>
       </c>
@@ -8107,7 +8108,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>606</v>
       </c>
@@ -8124,7 +8125,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>607</v>
       </c>
@@ -8141,7 +8142,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>608</v>
       </c>
@@ -8158,7 +8159,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>609</v>
       </c>
@@ -8175,7 +8176,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>610</v>
       </c>
@@ -8214,12 +8215,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="76.6640625" customWidth="1"/>
+    <col min="3" max="3" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -8233,7 +8234,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>118</v>
       </c>
@@ -8247,7 +8248,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>119</v>
       </c>
@@ -8261,7 +8262,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="375" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>120</v>
       </c>
@@ -8275,7 +8276,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>121</v>
       </c>
@@ -8289,7 +8290,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>123</v>
       </c>
@@ -8303,7 +8304,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>124</v>
       </c>
@@ -8317,7 +8318,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>125</v>
       </c>
@@ -8331,7 +8332,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>127</v>
       </c>
@@ -8345,7 +8346,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>129</v>
       </c>
@@ -8359,7 +8360,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>130</v>
       </c>
@@ -8373,7 +8374,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>131</v>
       </c>
@@ -8415,172 +8416,172 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="e">
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="e">
         <v>#VALUE!</v>
       </c>
@@ -8601,15 +8602,15 @@
       <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="41.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="86.33203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="3" width="41.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="86.28515625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8623,7 +8624,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>107</v>
       </c>
@@ -8635,7 +8636,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
@@ -8646,7 +8647,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
@@ -8657,7 +8658,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>60</v>
       </c>
@@ -8675,7 +8676,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -8686,7 +8687,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -8697,7 +8698,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>494</v>
       </c>
@@ -8716,7 +8717,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>357</v>
       </c>
@@ -8735,7 +8736,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>368</v>
       </c>
@@ -8754,7 +8755,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>611</v>
       </c>
@@ -8768,7 +8769,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -8793,7 +8794,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>354</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -8826,7 +8827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>396</v>
       </c>
@@ -8845,7 +8846,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>358</v>
       </c>
@@ -8864,7 +8865,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>366</v>
       </c>
@@ -8880,7 +8881,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>403</v>
       </c>
@@ -8891,7 +8892,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>630</v>
       </c>
@@ -8905,7 +8906,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>631</v>
       </c>
@@ -8919,7 +8920,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>367</v>
       </c>
@@ -8935,7 +8936,7 @@
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -8946,7 +8947,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>495</v>
       </c>
@@ -8965,7 +8966,7 @@
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -8976,7 +8977,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -8987,7 +8988,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -8998,7 +8999,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>362</v>
       </c>
@@ -9017,7 +9018,7 @@
       </c>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -9028,7 +9029,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -9039,7 +9040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -9050,7 +9051,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
@@ -9061,7 +9062,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -9072,7 +9073,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -9083,7 +9084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>485</v>
       </c>
@@ -9102,7 +9103,7 @@
       </c>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>96</v>
       </c>
@@ -9114,7 +9115,7 @@
       </c>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>365</v>
       </c>
@@ -9135,7 +9136,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>486</v>
       </c>
@@ -9154,7 +9155,7 @@
       </c>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>406</v>
       </c>
@@ -9173,7 +9174,7 @@
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
@@ -9184,7 +9185,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -9195,7 +9196,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>33</v>
       </c>
@@ -9206,7 +9207,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>62</v>
       </c>
@@ -9217,7 +9218,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>355</v>
       </c>
@@ -9228,7 +9229,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>497</v>
       </c>
@@ -9246,7 +9247,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
@@ -9257,7 +9258,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>496</v>
       </c>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>487</v>
       </c>
@@ -9295,7 +9296,7 @@
       </c>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>505</v>
       </c>
@@ -9314,7 +9315,7 @@
       </c>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
@@ -9328,7 +9329,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
@@ -9339,7 +9340,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>44</v>
       </c>
@@ -9350,7 +9351,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>360</v>
       </c>
@@ -9371,7 +9372,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>361</v>
       </c>
@@ -9390,7 +9391,7 @@
       </c>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>498</v>
       </c>
@@ -9409,7 +9410,7 @@
       </c>
       <c r="F56" s="8"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>629</v>
       </c>
@@ -9423,7 +9424,7 @@
       </c>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>359</v>
       </c>
@@ -9442,7 +9443,7 @@
       </c>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>425</v>
       </c>
@@ -9461,7 +9462,7 @@
       </c>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
@@ -9475,7 +9476,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -9486,7 +9487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>42</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>624</v>
       </c>
@@ -9511,7 +9512,7 @@
       </c>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>29</v>
       </c>
@@ -9525,7 +9526,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>398</v>
       </c>
@@ -9544,7 +9545,7 @@
       </c>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>54</v>
       </c>
@@ -9558,7 +9559,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>89</v>
       </c>
@@ -9569,7 +9570,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>483</v>
       </c>
@@ -9588,7 +9589,7 @@
       </c>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>484</v>
       </c>
@@ -9607,7 +9608,7 @@
       </c>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>115</v>
       </c>
@@ -9619,7 +9620,7 @@
       </c>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>90</v>
       </c>
@@ -9633,7 +9634,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>499</v>
       </c>
@@ -9652,7 +9653,7 @@
       </c>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>500</v>
       </c>
@@ -9671,7 +9672,7 @@
       </c>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>501</v>
       </c>
@@ -9690,7 +9691,7 @@
       </c>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>626</v>
       </c>
@@ -9704,7 +9705,7 @@
       </c>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>502</v>
       </c>
@@ -9723,7 +9724,7 @@
       </c>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>627</v>
       </c>
@@ -9737,7 +9738,7 @@
       </c>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>363</v>
       </c>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>356</v>
       </c>
@@ -9772,7 +9773,7 @@
       </c>
       <c r="F79" s="8"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>405</v>
       </c>
@@ -9783,7 +9784,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>108</v>
       </c>
@@ -9794,7 +9795,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>109</v>
       </c>
@@ -9805,7 +9806,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>93</v>
       </c>
@@ -9816,7 +9817,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>492</v>
       </c>
@@ -9835,7 +9836,7 @@
       </c>
       <c r="F84" s="8"/>
     </row>
-    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>493</v>
       </c>
@@ -9854,7 +9855,7 @@
       </c>
       <c r="F85" s="8"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>490</v>
       </c>
@@ -9873,7 +9874,7 @@
       </c>
       <c r="F86" s="8"/>
     </row>
-    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>491</v>
       </c>
@@ -9892,7 +9893,7 @@
       </c>
       <c r="F87" s="8"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>533</v>
       </c>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>114</v>
       </c>
@@ -9918,7 +9919,7 @@
       </c>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>57</v>
       </c>
@@ -9929,7 +9930,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>508</v>
       </c>
@@ -9948,7 +9949,7 @@
       </c>
       <c r="F91" s="8"/>
     </row>
-    <row r="92" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>410</v>
       </c>
@@ -9962,7 +9963,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
@@ -9973,7 +9974,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>97</v>
       </c>
@@ -9984,7 +9985,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>98</v>
       </c>
@@ -9998,7 +9999,7 @@
       </c>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>623</v>
       </c>
@@ -10009,7 +10010,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>102</v>
       </c>
@@ -10020,7 +10021,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>40</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>488</v>
       </c>
@@ -10049,7 +10050,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>396</v>
       </c>
@@ -10067,7 +10068,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="8" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" s="8" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>19</v>
       </c>
@@ -10081,7 +10082,7 @@
       </c>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>30</v>
       </c>
@@ -10095,7 +10096,7 @@
       </c>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>17</v>
       </c>
@@ -10109,7 +10110,7 @@
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" s="8" customFormat="1" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>106</v>
       </c>
@@ -10123,7 +10124,7 @@
       </c>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>105</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>78</v>
       </c>
@@ -10153,7 +10154,7 @@
       </c>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>45</v>
       </c>
@@ -10167,7 +10168,7 @@
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>83</v>
       </c>
@@ -10181,7 +10182,7 @@
       </c>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>111</v>
       </c>
@@ -10195,7 +10196,7 @@
       </c>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>113</v>
       </c>
@@ -10209,7 +10210,7 @@
       </c>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>423</v>
       </c>
@@ -10227,7 +10228,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>402</v>
       </c>
@@ -10245,7 +10246,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>73</v>
       </c>
@@ -10259,7 +10260,7 @@
       </c>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" s="8" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" s="8" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>94</v>
       </c>
@@ -10273,7 +10274,7 @@
       </c>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>506</v>
       </c>
@@ -10291,7 +10292,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>489</v>
       </c>
@@ -10309,7 +10310,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="8" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" s="8" customFormat="1" ht="375" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>100</v>
       </c>
@@ -10325,7 +10326,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="8" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" s="8" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>14</v>
       </c>
@@ -10339,7 +10340,7 @@
       </c>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" s="8" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" s="8" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>61</v>
       </c>
@@ -10357,7 +10358,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>64</v>
       </c>
@@ -10371,7 +10372,7 @@
       </c>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" s="8" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>68</v>
       </c>
@@ -10387,7 +10388,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="315" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>52</v>
       </c>
@@ -10401,7 +10402,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>76</v>
       </c>
@@ -10412,7 +10413,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>51</v>
       </c>
@@ -10423,7 +10424,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>424</v>
       </c>
@@ -10441,7 +10442,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>399</v>
       </c>
@@ -10460,7 +10461,7 @@
       </c>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>34</v>
       </c>
@@ -10474,7 +10475,7 @@
       </c>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>28</v>
       </c>
@@ -10488,7 +10489,7 @@
       </c>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>86</v>
       </c>
@@ -10502,7 +10503,7 @@
       </c>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>397</v>
       </c>
@@ -10520,7 +10521,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>404</v>
       </c>
@@ -10531,7 +10532,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>104</v>
       </c>
@@ -10545,7 +10546,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="8" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>103</v>
       </c>
@@ -10561,7 +10562,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>504</v>
       </c>
@@ -10579,7 +10580,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>400</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>79</v>
       </c>
@@ -10611,7 +10612,7 @@
       </c>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>81</v>
       </c>
@@ -10625,7 +10626,7 @@
       </c>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>95</v>
       </c>
@@ -10639,7 +10640,7 @@
       </c>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" s="8" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>101</v>
       </c>
@@ -10653,7 +10654,7 @@
       </c>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>503</v>
       </c>
@@ -10671,7 +10672,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>71</v>
       </c>
@@ -10685,7 +10686,7 @@
       </c>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>88</v>
       </c>
@@ -10699,7 +10700,7 @@
       </c>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>112</v>
       </c>
@@ -10713,7 +10714,7 @@
       </c>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6" s="8" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" s="8" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>87</v>
       </c>
@@ -10727,7 +10728,7 @@
       </c>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>25</v>
       </c>
@@ -10741,7 +10742,7 @@
       </c>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>16</v>
       </c>
@@ -10755,7 +10756,7 @@
       </c>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>625</v>
       </c>
@@ -10766,7 +10767,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>38</v>
       </c>
@@ -10780,7 +10781,7 @@
       </c>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>31</v>
       </c>
@@ -10794,7 +10795,7 @@
       </c>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:6" s="8" customFormat="1" ht="288" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" s="8" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>22</v>
       </c>
@@ -10810,7 +10811,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="8" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" s="8" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>23</v>
       </c>
@@ -10826,7 +10827,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="8" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" s="8" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>26</v>
       </c>
@@ -10842,7 +10843,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>27</v>
       </c>
@@ -10856,7 +10857,7 @@
       </c>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>24</v>
       </c>
@@ -10870,7 +10871,7 @@
       </c>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6" s="8" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" s="8" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>32</v>
       </c>
@@ -10886,7 +10887,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="8" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" s="8" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>33</v>
       </c>
@@ -10900,7 +10901,7 @@
       </c>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>116</v>
       </c>
@@ -10914,7 +10915,7 @@
       </c>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>628</v>
       </c>
@@ -10925,7 +10926,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>422</v>
       </c>
@@ -10941,7 +10942,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>401</v>
       </c>
@@ -11022,19 +11023,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>652</v>
       </c>
@@ -11051,7 +11052,7 @@
         <v>POINT Z (30.285604 59.959521 0)</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>653</v>
       </c>
@@ -11068,7 +11069,7 @@
         <v>POINT Z (30.328992 59.915982 0)</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>654</v>
       </c>
@@ -11085,7 +11086,7 @@
         <v>POINT Z ( 30.305753 59.973010 0)</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>655</v>
       </c>
@@ -11102,7 +11103,7 @@
         <v>POINT Z (30.313479 59.912522 0)</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>656</v>
       </c>
@@ -11118,7 +11119,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>657</v>
       </c>
@@ -11135,7 +11136,7 @@
         <v>POINT Z (30.289458 59.924781 0)</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>658</v>
       </c>
@@ -11152,7 +11153,7 @@
         <v>POINT Z (30.282424 59.922575 0)</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>659</v>
       </c>
@@ -11169,7 +11170,7 @@
         <v>POINT Z (30.307873 59.911326 0)</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>660</v>
       </c>
@@ -11186,7 +11187,7 @@
         <v>POINT Z (30.326333 59.917457 0)</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>661</v>
       </c>
@@ -11203,7 +11204,7 @@
         <v>POINT Z (30.293114 59.917037 0)</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>662</v>
       </c>
@@ -11220,7 +11221,7 @@
         <v>POINT Z (30.281337 59.920095 0)</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>663</v>
       </c>
@@ -11237,7 +11238,7 @@
         <v>POINT Z (30.285945 59.943012 0)</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>664</v>
       </c>
@@ -11254,7 +11255,7 @@
         <v>POINT Z (30.269883 59.947297 0)</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>665</v>
       </c>
@@ -11271,7 +11272,7 @@
         <v>POINT Z (30.257136 59.946482 0)</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>666</v>
       </c>
@@ -11288,7 +11289,7 @@
         <v>POINT Z (30.269973 59.933460 0)</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>667</v>
       </c>
@@ -11305,7 +11306,7 @@
         <v>POINT Z (30.294030 59.960507 0)</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>668</v>
       </c>
@@ -11322,7 +11323,7 @@
         <v>POINT Z (30.305816 59.955403 0)</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>669</v>
       </c>
@@ -11339,7 +11340,7 @@
         <v>POINT Z (30.295225 59.953133 0)</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>670</v>
       </c>
@@ -11356,7 +11357,7 @@
         <v>POINT Z (30.297929 59.953254 0)</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>671</v>
       </c>
@@ -11373,7 +11374,7 @@
         <v>POINT Z (30.313164 59.964588 0)</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>672</v>
       </c>
@@ -11390,7 +11391,7 @@
         <v>POINT Z (30.331023 59.956340 0)</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>673</v>
       </c>
@@ -11407,7 +11408,7 @@
         <v>POINT Z (30.329037 59.956007 0)</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>674</v>
       </c>
@@ -11424,7 +11425,7 @@
         <v>POINT Z (30.331517 59.956557 0)</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>675</v>
       </c>
@@ -11441,7 +11442,7 @@
         <v>POINT Z (30.300471 59.963926 0)</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>676</v>
       </c>
@@ -11458,7 +11459,7 @@
         <v>POINT Z ( 30.300875 59.954313 0)</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>677</v>
       </c>
@@ -11475,7 +11476,7 @@
         <v>POINT Z ( 30.368303 59.934903 0)</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>678</v>
       </c>
@@ -11492,7 +11493,7 @@
         <v>POINT Z ( 30.380098 59.926886 0)</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>679</v>
       </c>
